--- a/biology/Microbiologie/Halobacterium/Halobacterium.xlsx
+++ b/biology/Microbiologie/Halobacterium/Halobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halobacterium est un genre d'archées halophiles de la famille des Halobacteriaceae. Il regroupe plusieurs espèces aérobies dont le métabolisme nécessite un environnement à forte teneur en sels dissous car de nombreuses enzymes de ces organismes sont inopérantes dans les environnements pauvres en sels. Ces cellules se présentent sous forme de bâtonnets ou de coques de couleur rouge ou violette, avec des parois cellulaires différentes de celles des bactéries car ces dernières ne résistent pas aux environnements trop riches en sels, et se développent en présence d'acides aminés en conditions aérobies. Elle se reproduisent par scissiparité (par constriction) et sont motiles. Leur développement est optimal à 42 °C.
 Le génome d’Halobacterium NRC-1 a été séquencé et comprend 2 571 010 paires de bases d'ADN répartis sur trois chromosomes circulaires : un grand de 2 014 239 paires de bases, et deux petits de 191 346 et 365 425 paires de bases.
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 juillet 2017) :
 Halobacterium halobium (Petter, 1931) Elazari-Volcani, 1957
 Halobacterium jilantaiense Yang &amp; al., 2006
 Halobacterium noricense Gruber &amp; al., 2005
